--- a/Raw Input Data/Processing/Case 47/Suspect transaction.xlsx
+++ b/Raw Input Data/Processing/Case 47/Suspect transaction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hbap.adroot.hsbc\HK\HASE\28062201\Fraud_Ops_FIM_File_Sharing\HASE case\Gen AI\Gen AI 45 cases summary\Case 47 - C250141299060\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Raw Input Data\Processing\Case 47\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C462ECD-17BB-46EF-BA1F-B83082F4315B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4CD5E9-9DE0-4DDC-8E1C-AD91BC240DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{88210DF8-883A-4FD5-8AD6-76F8F49E913A}"/>
+    <workbookView xWindow="-26850" yWindow="6810" windowWidth="20520" windowHeight="20745" xr2:uid="{88210DF8-883A-4FD5-8AD6-76F8F49E913A}"/>
   </bookViews>
   <sheets>
     <sheet name="Transaction record" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Transaction Date (value)</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>UNKNOWN OR INVALID TERRITORY</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t xml:space="preserve">YEUNG KAI </t>
@@ -135,7 +132,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -218,18 +215,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,32 +562,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C5ED26-C08D-41A2-BD0F-94E79FFF70C2}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.8984375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.09765625" customWidth="1"/>
-    <col min="9" max="9" width="44.296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="45.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.8984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -644,7 +640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>45681</v>
       </c>
@@ -669,7 +665,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>21</v>
@@ -689,7 +685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>45681</v>
       </c>
@@ -697,10 +693,10 @@
         <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>17</v>
@@ -714,10 +710,10 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>23</v>
@@ -734,82 +730,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="B4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="E5" s="11"/>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:17" ht="15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17" ht="15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10"/>
       <c r="Q7" s="6"/>
     </row>
   </sheetData>
@@ -1017,15 +963,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="5ed3fcfa-dd51-4f96-90c6-6669337cd654" xsi:nil="true"/>
@@ -1036,14 +973,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDCA1029-7754-4760-8410-05D52ADE0B19}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDCA1029-7754-4760-8410-05D52ADE0B19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fc14db02-3d39-436b-9056-63d1dbe054e8"/>
+    <ds:schemaRef ds:uri="5ed3fcfa-dd51-4f96-90c6-6669337cd654"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AB75A5C-3EE3-4019-B085-BCA33ED8A83F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{779C2D8B-A706-4104-9EE3-29DAE782876A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5ed3fcfa-dd51-4f96-90c6-6669337cd654"/>
+    <ds:schemaRef ds:uri="fc14db02-3d39-436b-9056-63d1dbe054e8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{779C2D8B-A706-4104-9EE3-29DAE782876A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AB75A5C-3EE3-4019-B085-BCA33ED8A83F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>